--- a/flashr/loop/doanh_thu_ban_hang.xlsx
+++ b/flashr/loop/doanh_thu_ban_hang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKING\course_r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\tuhocr\flashr\loop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,14 @@
     <sheet name="Mẫu danh sách NV tổng hợp" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu danh sách NV tổng hợp'!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu danh sách NV tổng hợp'!$A$1:$G$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="76">
   <si>
     <t>Họ</t>
   </si>
@@ -577,63 +574,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -647,25 +640,22 @@
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7">
+        <v>44596</v>
+      </c>
+      <c r="G2" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2682000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="7">
-        <v>44596</v>
-      </c>
-      <c r="H2" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I2">
-        <v>42</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2682000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -674,30 +664,27 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7">
+        <v>44168</v>
+      </c>
+      <c r="G3" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1994000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="7">
-        <v>44168</v>
-      </c>
-      <c r="H3" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1994000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
@@ -709,33 +696,30 @@
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44728</v>
+      </c>
+      <c r="G4" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>21780000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7">
-        <v>44728</v>
-      </c>
-      <c r="H4" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8">
-        <v>21780000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -743,25 +727,22 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>44527</v>
       </c>
-      <c r="H5" s="9">
+      <c r="G5" s="9">
         <v>25000000</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <v>53</v>
       </c>
-      <c r="J5" s="8">
+      <c r="I5" s="8">
         <v>951000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -770,97 +751,88 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44631</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7000000</v>
+      </c>
+      <c r="H6">
+        <v>52</v>
+      </c>
+      <c r="I6" s="8">
+        <v>25700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7">
-        <v>44631</v>
-      </c>
-      <c r="H6" s="9">
-        <v>7000000</v>
-      </c>
-      <c r="I6">
-        <v>52</v>
-      </c>
-      <c r="J6" s="8">
-        <v>25700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
         <v>44694</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="9">
         <v>15000000</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>35</v>
       </c>
-      <c r="J7" s="8">
+      <c r="I7" s="8">
         <v>18330000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G8" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2826000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7">
-        <v>44695</v>
-      </c>
-      <c r="H8" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I8">
-        <v>36</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2826000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -871,60 +843,54 @@
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <v>44455</v>
       </c>
-      <c r="H9" s="9">
+      <c r="G9" s="9">
         <v>25000000</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="J9" s="8">
+      <c r="I9" s="8">
         <v>1903000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44511</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8">
+        <v>14430000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7">
-        <v>44511</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
-      <c r="J10" s="8">
-        <v>14430000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
@@ -933,129 +899,117 @@
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
         <v>44512</v>
       </c>
-      <c r="H11" s="9">
+      <c r="G11" s="9">
         <v>17000000</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="J11" s="8">
+      <c r="I11" s="8">
         <v>879000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44513</v>
+      </c>
+      <c r="G12" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2181000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7">
-        <v>44513</v>
-      </c>
-      <c r="H12" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I12">
-        <v>52</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2181000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44514</v>
+      </c>
+      <c r="G13" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2659000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7">
-        <v>44514</v>
-      </c>
-      <c r="H13" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2659000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
       <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44515</v>
+      </c>
+      <c r="G14" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+      <c r="I14" s="8">
+        <v>784000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H14" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I14">
-        <v>29</v>
-      </c>
-      <c r="J14" s="8">
-        <v>784000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>9</v>
@@ -1063,63 +1017,57 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7">
         <v>44596</v>
       </c>
-      <c r="H15" s="9">
+      <c r="G15" s="9">
         <v>17000000</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <v>22</v>
       </c>
-      <c r="J15" s="8">
+      <c r="I15" s="8">
         <v>2764000000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>15</v>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44168</v>
+      </c>
+      <c r="G16" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16" s="8">
+        <v>395000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7">
-        <v>44168</v>
-      </c>
-      <c r="H16" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="I16">
-        <v>35</v>
-      </c>
-      <c r="J16" s="8">
-        <v>395000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>9</v>
@@ -1127,223 +1075,202 @@
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7">
         <v>44728</v>
       </c>
-      <c r="H17" s="9">
+      <c r="G17" s="9">
         <v>15000000</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <v>38</v>
       </c>
-      <c r="J17" s="8">
+      <c r="I17" s="8">
         <v>2202000000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>17</v>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7">
         <v>44527</v>
       </c>
-      <c r="H18" s="9">
+      <c r="G18" s="9">
         <v>50000000</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>43</v>
       </c>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
         <v>218000000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44631</v>
+      </c>
+      <c r="G19" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1587000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7">
-        <v>44631</v>
-      </c>
-      <c r="H19" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I19">
-        <v>34</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1587000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44694</v>
+      </c>
+      <c r="G20" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H20">
+        <v>46</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2869000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7">
-        <v>44694</v>
-      </c>
-      <c r="H20" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I20">
-        <v>46</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2869000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7000000</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1271000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7">
-        <v>44695</v>
-      </c>
-      <c r="H21" s="9">
-        <v>7000000</v>
-      </c>
-      <c r="I21">
-        <v>26</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1271000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44455</v>
+      </c>
+      <c r="G22" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2191000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7">
-        <v>44455</v>
-      </c>
-      <c r="H22" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I22">
-        <v>32</v>
-      </c>
-      <c r="J22" s="8">
-        <v>2191000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44728</v>
+      </c>
+      <c r="G23" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H23">
+        <v>24</v>
+      </c>
+      <c r="I23" s="8">
+        <v>73500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7">
-        <v>44728</v>
-      </c>
-      <c r="H23" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23" s="8">
-        <v>73500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>9</v>
@@ -1351,25 +1278,22 @@
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="7">
         <v>44527</v>
       </c>
-      <c r="H24" s="9">
+      <c r="G24" s="9">
         <v>15000000</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <v>48</v>
       </c>
-      <c r="J24" s="8">
+      <c r="I24" s="8">
         <v>2980000000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>24</v>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
@@ -1378,97 +1302,88 @@
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7">
         <v>44527</v>
       </c>
-      <c r="H25" s="9">
+      <c r="G25" s="9">
         <v>11000000</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>42</v>
       </c>
-      <c r="J25" s="8">
+      <c r="I25" s="8">
         <v>13980000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7">
         <v>44631</v>
       </c>
-      <c r="H26" s="9">
+      <c r="G26" s="9">
         <v>17000000</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <v>52</v>
       </c>
-      <c r="J26" s="8">
+      <c r="I26" s="8">
         <v>198900000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>26</v>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
+        <v>44694</v>
+      </c>
+      <c r="G27" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H27">
+        <v>54</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2749000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7">
-        <v>44694</v>
-      </c>
-      <c r="H27" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I27">
-        <v>54</v>
-      </c>
-      <c r="J27" s="8">
-        <v>2749000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
@@ -1479,60 +1394,54 @@
       <c r="E28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="7">
         <v>44695</v>
       </c>
-      <c r="H28" s="9">
+      <c r="G28" s="9">
         <v>15000000</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>39</v>
       </c>
-      <c r="J28" s="8">
+      <c r="I28" s="8">
         <v>1439000000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>28</v>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7">
         <v>44455</v>
       </c>
-      <c r="H29" s="9">
+      <c r="G29" s="9">
         <v>10000000</v>
       </c>
-      <c r="I29">
+      <c r="H29">
         <v>38</v>
       </c>
-      <c r="J29" s="8">
+      <c r="I29" s="8">
         <v>953000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>29</v>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>17</v>
@@ -1541,129 +1450,117 @@
         <v>18</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7">
         <v>44511</v>
       </c>
-      <c r="H30" s="9">
+      <c r="G30" s="9">
         <v>15000000</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <v>47</v>
       </c>
-      <c r="J30" s="8">
+      <c r="I30" s="8">
         <v>29980000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>30</v>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>44512</v>
+      </c>
+      <c r="G31" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H31">
+        <v>38</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1034000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7">
+        <v>44514</v>
+      </c>
+      <c r="G32" s="9">
         <v>17000000</v>
       </c>
-      <c r="I31">
-        <v>38</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1034000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7">
-        <v>44514</v>
-      </c>
-      <c r="H32" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I32">
+      <c r="H32">
         <v>52</v>
       </c>
-      <c r="J32" s="8">
+      <c r="I32" s="8">
         <v>1238000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>32</v>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7">
+        <v>44515</v>
+      </c>
+      <c r="G33" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H33">
+        <v>27</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2176000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H33" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I33">
-        <v>27</v>
-      </c>
-      <c r="J33" s="8">
-        <v>2176000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>9</v>
@@ -1671,60 +1568,54 @@
       <c r="E34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G34" s="9">
+        <v>7000000</v>
+      </c>
+      <c r="H34">
+        <v>55</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2614000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="7">
-        <v>44516</v>
-      </c>
-      <c r="H34" s="9">
-        <v>7000000</v>
-      </c>
-      <c r="I34">
-        <v>55</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2614000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
       <c r="B35" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="7">
         <v>44168</v>
       </c>
-      <c r="H35" s="9">
+      <c r="G35" s="9">
         <v>15000000</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <v>19</v>
       </c>
-      <c r="J35" s="8">
+      <c r="I35" s="8">
         <v>2587000000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>35</v>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>17</v>
@@ -1733,33 +1624,30 @@
         <v>18</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="7">
+        <v>14</v>
+      </c>
+      <c r="F36" s="7">
         <v>44728</v>
       </c>
-      <c r="H36" s="9">
+      <c r="G36" s="9">
         <v>17000000</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>36</v>
       </c>
-      <c r="J36" s="8">
+      <c r="I36" s="8">
         <v>10010000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>36</v>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>9</v>
@@ -1767,25 +1655,22 @@
       <c r="E37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="7">
         <v>44527</v>
       </c>
-      <c r="H37" s="9">
+      <c r="G37" s="9">
         <v>15000000</v>
       </c>
-      <c r="I37">
+      <c r="H37">
         <v>54</v>
       </c>
-      <c r="J37" s="8">
+      <c r="I37" s="8">
         <v>1870000000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>37</v>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>22</v>
@@ -1794,100 +1679,91 @@
         <v>23</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="7">
+        <v>44631</v>
+      </c>
+      <c r="G38" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="H38">
+        <v>33</v>
+      </c>
+      <c r="I38" s="8">
+        <v>10390000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="7">
-        <v>44631</v>
-      </c>
-      <c r="H38" s="9">
-        <v>8000000</v>
-      </c>
-      <c r="I38">
-        <v>33</v>
-      </c>
-      <c r="J38" s="8">
-        <v>10390000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
       <c r="B39" s="6" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7">
         <v>44694</v>
       </c>
-      <c r="H39" s="9">
+      <c r="G39" s="9">
         <v>17000000</v>
       </c>
-      <c r="I39">
+      <c r="H39">
         <v>23</v>
       </c>
-      <c r="J39" s="8">
+      <c r="I39" s="8">
         <v>190600000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>39</v>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G40" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1088000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7">
-        <v>44695</v>
-      </c>
-      <c r="H40" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I40">
-        <v>38</v>
-      </c>
-      <c r="J40" s="8">
-        <v>1088000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
@@ -1895,60 +1771,54 @@
       <c r="E41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="F41" s="7">
         <v>44694</v>
       </c>
-      <c r="H41" s="9">
+      <c r="G41" s="9">
         <v>15000000</v>
       </c>
-      <c r="I41">
+      <c r="H41">
         <v>54</v>
       </c>
-      <c r="J41" s="8">
+      <c r="I41" s="8">
         <v>2933000000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>41</v>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G42" s="9">
+        <v>7000000</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2802000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="7">
-        <v>44695</v>
-      </c>
-      <c r="H42" s="9">
-        <v>7000000</v>
-      </c>
-      <c r="I42">
-        <v>50</v>
-      </c>
-      <c r="J42" s="8">
-        <v>2802000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
       <c r="B43" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>17</v>
@@ -1957,129 +1827,117 @@
         <v>18</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7">
+        <v>44455</v>
+      </c>
+      <c r="G43" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="I43" s="8">
+        <v>142100000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7">
+        <v>44455</v>
+      </c>
+      <c r="G44" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2535000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="7">
+        <v>44514</v>
+      </c>
+      <c r="G45" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H45">
+        <v>41</v>
+      </c>
+      <c r="I45" s="8">
+        <v>809000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="7">
-        <v>44455</v>
-      </c>
-      <c r="H43" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I43">
-        <v>45</v>
-      </c>
-      <c r="J43" s="8">
-        <v>142100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="7">
-        <v>44455</v>
-      </c>
-      <c r="H44" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I44">
-        <v>50</v>
-      </c>
-      <c r="J44" s="8">
-        <v>2535000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="7">
+        <v>44515</v>
+      </c>
+      <c r="G46" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1326000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="7">
-        <v>44514</v>
-      </c>
-      <c r="H45" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I45">
-        <v>41</v>
-      </c>
-      <c r="J45" s="8">
-        <v>809000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H46" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="I46">
-        <v>48</v>
-      </c>
-      <c r="J46" s="8">
-        <v>1326000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
       <c r="B47" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>9</v>
@@ -2087,63 +1945,57 @@
       <c r="E47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="F47" s="7">
         <v>44516</v>
       </c>
-      <c r="H47" s="9">
+      <c r="G47" s="9">
         <v>20000000</v>
       </c>
-      <c r="I47">
+      <c r="H47">
         <v>29</v>
       </c>
-      <c r="J47" s="8">
+      <c r="I47" s="8">
         <v>1118000000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>47</v>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="7">
+        <v>44517</v>
+      </c>
+      <c r="G48" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H48">
+        <v>31</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1152000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H48" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I48">
-        <v>31</v>
-      </c>
-      <c r="J48" s="8">
-        <v>1152000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
       <c r="B49" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>9</v>
@@ -2151,223 +2003,202 @@
       <c r="E49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F49" s="7">
         <v>44455</v>
       </c>
-      <c r="H49" s="9">
+      <c r="G49" s="9">
         <v>7000000</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <v>45</v>
       </c>
-      <c r="J49" s="8">
+      <c r="I49" s="8">
         <v>390000000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>49</v>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="7">
         <v>44511</v>
       </c>
-      <c r="H50" s="9">
+      <c r="G50" s="9">
         <v>15000000</v>
       </c>
-      <c r="I50">
+      <c r="H50">
         <v>28</v>
       </c>
-      <c r="J50" s="8">
+      <c r="I50" s="8">
         <v>1328000000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>50</v>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="7">
+        <v>44512</v>
+      </c>
+      <c r="G51" s="9">
+        <v>17000000</v>
+      </c>
+      <c r="H51">
+        <v>41</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1313000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H51" s="9">
-        <v>17000000</v>
-      </c>
-      <c r="I51">
-        <v>41</v>
-      </c>
-      <c r="J51" s="8">
-        <v>1313000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
       <c r="B52" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44514</v>
+      </c>
+      <c r="G52" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="H52">
+        <v>21</v>
+      </c>
+      <c r="I52" s="8">
+        <v>831000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="7">
-        <v>44514</v>
-      </c>
-      <c r="H52" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="I52">
-        <v>21</v>
-      </c>
-      <c r="J52" s="8">
-        <v>831000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="7">
+        <v>14</v>
+      </c>
+      <c r="F53" s="7">
         <v>44515</v>
       </c>
-      <c r="H53" s="9">
+      <c r="G53" s="9">
         <v>15000000</v>
       </c>
-      <c r="I53">
+      <c r="H53">
         <v>44</v>
       </c>
-      <c r="J53" s="8">
+      <c r="I53" s="8">
         <v>2570000000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>53</v>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="F54" s="7">
         <v>44516</v>
       </c>
-      <c r="H54" s="9">
+      <c r="G54" s="9">
         <v>17000000</v>
       </c>
-      <c r="I54">
+      <c r="H54">
         <v>52</v>
       </c>
-      <c r="J54" s="8">
+      <c r="I54" s="8">
         <v>973000000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>54</v>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="7">
+        <v>14</v>
+      </c>
+      <c r="F55" s="7">
         <v>44168</v>
       </c>
-      <c r="H55" s="9">
+      <c r="G55" s="9">
         <v>15000000</v>
       </c>
-      <c r="I55">
+      <c r="H55">
         <v>28</v>
       </c>
-      <c r="J55" s="8">
+      <c r="I55" s="8">
         <v>1838000000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>55</v>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>9</v>
@@ -2375,124 +2206,112 @@
       <c r="E56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="F56" s="7">
         <v>44527</v>
       </c>
-      <c r="H56" s="9">
+      <c r="G56" s="9">
         <v>17000000</v>
       </c>
-      <c r="I56">
+      <c r="H56">
         <v>43</v>
       </c>
-      <c r="J56" s="8">
+      <c r="I56" s="8">
         <v>1732000000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>56</v>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="7">
+        <v>44631</v>
+      </c>
+      <c r="G57" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="H57">
+        <v>48</v>
+      </c>
+      <c r="I57" s="8">
+        <v>20740000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="7">
-        <v>44631</v>
-      </c>
-      <c r="H57" s="9">
-        <v>9000000</v>
-      </c>
-      <c r="I57">
-        <v>48</v>
-      </c>
-      <c r="J57" s="8">
-        <v>20740000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
       <c r="B58" s="6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="7">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7">
         <v>44694</v>
       </c>
-      <c r="H58" s="9">
+      <c r="G58" s="9">
         <v>17000000</v>
       </c>
-      <c r="I58">
+      <c r="H58">
         <v>44</v>
       </c>
-      <c r="J58" s="8">
+      <c r="I58" s="8">
         <v>149500000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>58</v>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G59" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="H59">
+        <v>47</v>
+      </c>
+      <c r="I59" s="8">
+        <v>872000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="7">
-        <v>44695</v>
-      </c>
-      <c r="H59" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="I59">
-        <v>47</v>
-      </c>
-      <c r="J59" s="8">
-        <v>872000000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
       <c r="B60" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>8</v>
@@ -2503,31 +2322,28 @@
       <c r="E60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="F60" s="7">
         <v>44455</v>
       </c>
-      <c r="H60" s="9">
+      <c r="G60" s="9">
         <v>17000000</v>
       </c>
-      <c r="I60">
+      <c r="H60">
         <v>53</v>
       </c>
-      <c r="J60" s="8">
+      <c r="I60" s="8">
         <v>807000000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
-        <v>60</v>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>9</v>
@@ -2535,25 +2351,22 @@
       <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="F61" s="7">
         <v>44455</v>
       </c>
-      <c r="H61" s="9">
+      <c r="G61" s="9">
         <v>25000000</v>
       </c>
-      <c r="I61">
+      <c r="H61">
         <v>29</v>
       </c>
-      <c r="J61" s="8">
+      <c r="I61" s="8">
         <v>2687000000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3491,18 +3304,18 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:H61"/>
+  <autoFilter ref="A1:G61"/>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G61">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F61">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(F2))), AND(ISNUMBER(F2), LEFT(CELL("format", F2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F61">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E61">
       <formula1>"Nam,Nữ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E61">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D61">
       <formula1>"HN,HCM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D61">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C61">
       <formula1>"Thực tập sinh,Học việc,Nhân viên,Quản lý"</formula1>
     </dataValidation>
   </dataValidations>
